--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -427,7 +427,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -472,7 +472,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>CHLOE LA FOLLE</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -1,33 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\Bureau\Code Work\manipulating_excels\Manipulating Excels with Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D7D445-C479-4368-AFD5-11286C935878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30015" yWindow="4170" windowWidth="19830" windowHeight="14970" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="30015" yWindow="4170" windowWidth="19830" windowHeight="14970" xr2:uid="{954FDF21-168F-45AB-B23A-57329EC4B510}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Nom de la BDF</t>
+  </si>
+  <si>
+    <t>Classement</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heure </t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +90,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,72 +404,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509B223-D6B0-43C2-AA9F-A598451C8D97}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="21.42578125" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nom de la BDF</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Classement</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Joueur</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heure </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Killer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CHLOE LA FOLLE</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;6 &amp;K626469_x000d_# Public</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K626469 Public</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -1,59 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\Bureau\Code Work\manipulating_excels\Manipulating Excels with Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D7D445-C479-4368-AFD5-11286C935878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467985C2-15B2-4C2E-BAAE-F3150DA6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="4170" windowWidth="19830" windowHeight="14970" xr2:uid="{954FDF21-168F-45AB-B23A-57329EC4B510}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Nom de la BDF</t>
-  </si>
-  <si>
-    <t>Classement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Joueur</t>
   </si>
   <si>
-    <t xml:space="preserve">Heure </t>
-  </si>
-  <si>
-    <t>Killer</t>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Côme</t>
+  </si>
+  <si>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>Sylvie P</t>
+  </si>
+  <si>
+    <t>Béa</t>
+  </si>
+  <si>
+    <t>Hugo D</t>
   </si>
 </sst>
 </file>
@@ -109,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,7 +120,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +132,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -149,12 +144,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -184,29 +179,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -236,26 +214,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,51 +358,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509B223-D6B0-43C2-AA9F-A598451C8D97}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K626469 Public</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -1,54 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\Bureau\Code Work\manipulating_excels\Manipulating Excels with Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467985C2-15B2-4C2E-BAAE-F3150DA6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D7D445-C479-4368-AFD5-11286C935878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="4170" windowWidth="19830" windowHeight="14970" xr2:uid="{954FDF21-168F-45AB-B23A-57329EC4B510}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Nom de la BDF</t>
+  </si>
+  <si>
+    <t>Classement</t>
+  </si>
   <si>
     <t>Joueur</t>
   </si>
   <si>
-    <t>Baptiste</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Côme</t>
-  </si>
-  <si>
-    <t>Didier</t>
-  </si>
-  <si>
-    <t>Sylvie P</t>
-  </si>
-  <si>
-    <t>Béa</t>
-  </si>
-  <si>
-    <t>Hugo D</t>
+    <t xml:space="preserve">Heure </t>
+  </si>
+  <si>
+    <t>Killer</t>
   </si>
 </sst>
 </file>
@@ -104,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -120,7 +125,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -132,7 +137,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,12 +149,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,12 +184,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -214,9 +236,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -358,63 +397,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509B223-D6B0-43C2-AA9F-A598451C8D97}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K626469 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\Bureau\Code Work\manipulating_excels\Manipulating Excels with Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30120E7F-B221-4E1F-BEB1-596650BDF30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12690" yWindow="5175" windowWidth="21945" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>Classement</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>Heure</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Côme</t>
+  </si>
+  <si>
+    <t>Hugo D</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,44 +406,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Classement</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Joueur</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Heure</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Killer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45541.32284073528</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45541.32284073528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -2,25 +2,47 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\Bureau\Code Work\manipulating_excels\Manipulating Excels with Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comet\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30120E7F-B221-4E1F-BEB1-596650BDF30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C97D5A-EF57-4A40-89C8-2292D1D8703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="5175" windowWidth="21945" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13785" yWindow="4305" windowWidth="21945" windowHeight="15345" xr2:uid="{954FDF21-168F-45AB-B23A-57329EC4B510}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Nom de la BDF</t>
+  </si>
   <si>
     <t>Classement</t>
   </si>
@@ -28,29 +50,17 @@
     <t>Joueur</t>
   </si>
   <si>
-    <t>Heure</t>
+    <t xml:space="preserve">Heure </t>
   </si>
   <si>
     <t>Killer</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Côme</t>
-  </si>
-  <si>
-    <t>Hugo D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +68,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -80,37 +91,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -123,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,44 +126,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,14 +190,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -231,9 +242,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -242,225 +271,188 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509B223-D6B0-43C2-AA9F-A598451C8D97}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45541.32284073528</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45541.32284073528</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K626469 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,112 +438,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nom de la BDF</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Classement</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Joueur</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Heure</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Killer</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Classement des éliminés</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Classement</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Joueur</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heure </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Heure</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Killer</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Points</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Côme</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>45542.66999538201</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Mathieu</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="C3" s="3" t="n">
+        <v>45542.70299954861</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,13 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Classement des éliminés</t>
+          <t xml:space="preserve">BDF Edition 9 </t>
         </is>
       </c>
     </row>
@@ -457,7 +453,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Heure</t>
+          <t xml:space="preserve">Heure </t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -473,20 +469,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Côme</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>45542.70299954861</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heure </t>
+          <t>Heure</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -505,6 +505,46 @@
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:29</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mathieu</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Heure</t>
+          <t xml:space="preserve">Heure </t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -496,54 +496,44 @@
       <c r="A8" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mathieu</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Didier</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Côme</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>09:29</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Côme</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Baptiste</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mathieu</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
           <t>Points</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Heure</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -476,21 +481,81 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sylvie P</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13:57</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hugo D</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -503,7 +568,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mathieu</t>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13:55</t>
         </is>
       </c>
     </row>
@@ -518,7 +588,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Didier</t>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13:55</t>
         </is>
       </c>
     </row>
@@ -533,7 +608,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13:55</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -481,21 +481,6 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Côme</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sylvie P</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13:57</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -503,17 +488,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Hugo D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>07:37</t>
         </is>
       </c>
     </row>
@@ -523,17 +508,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hugo D</t>
+          <t>Sylvie P</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>07:32</t>
         </is>
       </c>
     </row>
@@ -543,17 +528,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Baptiste</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>07:28</t>
         </is>
       </c>
     </row>
@@ -563,17 +548,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Hugo W</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Hugo D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>07:28</t>
         </is>
       </c>
     </row>
@@ -583,17 +568,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Hugo W</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Côme</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>13:55</t>
+          <t>Hugo D</t>
         </is>
       </c>
     </row>
@@ -603,17 +583,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Baptiste</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Côme</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13:55</t>
+          <t>Hugo D</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,96 +486,26 @@
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mathieu</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Hugo D</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>07:37</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mathieu</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sylvie P</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>07:32</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Baptiste</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>07:28</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hugo W</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hugo D</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>07:28</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hugo W</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Hugo D</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -583,12 +513,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Mathieu</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>07:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Hugo D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Didier</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>07:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anne-Lise</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Didier</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>07:47</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -476,36 +476,162 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côme</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -513,17 +639,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Didier</t>
+          <t>Côme</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mathieu</t>
-        </is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07:52</t>
+          <t>11:01</t>
         </is>
       </c>
     </row>
@@ -533,17 +662,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hugo D</t>
+          <t>Côme</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Didier</t>
-        </is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>07:48</t>
+          <t>11:01</t>
         </is>
       </c>
     </row>
@@ -553,17 +685,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anne-Lise</t>
+          <t>Côme</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Didier</t>
-        </is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>11:01</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -476,23 +476,8 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Côme</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
       <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11:01</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -501,20 +486,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baptiste</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
+          <t>Eric</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:05</t>
         </is>
       </c>
     </row>
@@ -524,20 +506,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Baptiste</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:05</t>
         </is>
       </c>
     </row>
@@ -552,15 +534,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:05</t>
         </is>
       </c>
     </row>
@@ -570,20 +552,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Sylvie P</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:04</t>
         </is>
       </c>
     </row>
@@ -593,20 +575,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Béa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:04</t>
         </is>
       </c>
     </row>
@@ -616,12 +598,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Anne-Lise</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -629,7 +611,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:04</t>
         </is>
       </c>
     </row>
@@ -639,12 +621,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -652,7 +634,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:04</t>
         </is>
       </c>
     </row>
@@ -662,12 +644,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Jean Rob</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -675,7 +657,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:04</t>
         </is>
       </c>
     </row>
@@ -685,12 +667,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Côme</t>
+          <t>Hugo D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Baptiste</t>
+          <t>Jean Rob</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -698,7 +680,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:03</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -476,6 +476,11 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -494,9 +499,12 @@
           <t>Eric</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>10:15</t>
         </is>
       </c>
     </row>
@@ -515,11 +523,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>10:15</t>
         </is>
       </c>
     </row>
@@ -538,11 +546,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>10:15</t>
         </is>
       </c>
     </row>
@@ -561,11 +569,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:15</t>
         </is>
       </c>
     </row>
@@ -584,11 +592,11 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:15</t>
         </is>
       </c>
     </row>
@@ -611,7 +619,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:14</t>
         </is>
       </c>
     </row>
@@ -634,7 +642,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:14</t>
         </is>
       </c>
     </row>
@@ -657,7 +665,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:14</t>
         </is>
       </c>
     </row>
@@ -680,7 +688,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:14</t>
         </is>
       </c>
     </row>

--- a/Manipulating Excels with Code/shared_excel.xlsx
+++ b/Manipulating Excels with Code/shared_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heure </t>
+          <t>Heure</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -464,11 +464,6 @@
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Points</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Heure</t>
         </is>
       </c>
     </row>
@@ -476,11 +471,6 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -489,115 +479,40 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Didier</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
       <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Baptiste</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Didier</t>
-        </is>
-      </c>
       <c r="E5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Côme</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Didier</t>
-        </is>
-      </c>
       <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sylvie P</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Didier</t>
-        </is>
-      </c>
       <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Béa</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Didier</t>
-        </is>
-      </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -606,21 +521,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Jean Rob</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10:28</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Anne-Lise</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Didier</t>
-        </is>
-      </c>
       <c r="E9" t="n">
         <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10:14</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -632,18 +547,18 @@
           <t>Mathieu</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10:28</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Anne-Lise</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10:14</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -652,21 +567,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jean Rob</t>
+          <t>Hugo D</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Anne-Lise</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10:14</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -675,21 +590,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hugo D</t>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10:28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jean Rob</t>
+          <t>Anne-Lise</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10:14</t>
-        </is>
       </c>
     </row>
   </sheetData>
